--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_40.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3806305.888521725</v>
+        <v>3799954.145980592</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223172</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6306638.839980302</v>
+        <v>6306048.860589884</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +665,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>98.29188710082163</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>34.93673585722161</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -738,10 +738,10 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D3" t="n">
-        <v>44.00931264611917</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
         <v>135.0820259802211</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>36.65301522788403</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7.755913384878972</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.4741449917553</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>274.3764799506944</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -987,7 +987,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
-        <v>62.45384130997793</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
         <v>87.41444223540508</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>1.894826399411825</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>95.98918911403644</v>
+        <v>196.8603518962334</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>93.86507798757064</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>244.7691279384495</v>
       </c>
     </row>
     <row r="9">
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,10 +1379,10 @@
         <v>304.5664151603044</v>
       </c>
       <c r="F11" t="n">
-        <v>88.2436504745469</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
@@ -1430,10 +1430,10 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>19.33415213001666</v>
       </c>
       <c r="X11" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>298.5345275142884</v>
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>135.7769226390519</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>56.49943888151631</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1822,13 +1822,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277472</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059378</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F19" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277187</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555345</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689347</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587578</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303127</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.81238610261</v>
       </c>
       <c r="I32" t="n">
-        <v>27.367374384535</v>
+        <v>20.9239119118956</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443512</v>
+        <v>48.81858568179572</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896133</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431832</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769526</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548312</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897095</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046344</v>
+        <v>67.32610467782405</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074585</v>
+        <v>52.47323292810646</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258558</v>
+        <v>38.04694813994618</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546469</v>
+        <v>37.97339019282529</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523196</v>
+        <v>39.72284161259256</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762409</v>
+        <v>50.5416795349847</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419613</v>
+        <v>37.89393170155674</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536806</v>
+        <v>15.73364728272867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982398</v>
+        <v>6.632145647184586</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253513</v>
+        <v>84.7580891527119</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.332027486884</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008198</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215699</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682825</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449589</v>
       </c>
     </row>
     <row r="35">
@@ -3263,13 +3263,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
         <v>268.1977203190365</v>
@@ -3281,10 +3281,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
@@ -3484,13 +3484,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X37" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386984</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190364</v>
       </c>
       <c r="F38" t="n">
         <v>282.3655247697376</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875379</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.4884501927755</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059305</v>
       </c>
       <c r="U38" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541629</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879323</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3569,7 +3569,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730204</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880383</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908623</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092596</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380507</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357234</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596447</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253652</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708446</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369168</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U40" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249336</v>
       </c>
       <c r="V40" t="n">
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593863</v>
       </c>
     </row>
     <row r="41">
@@ -3743,10 +3743,10 @@
         <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>244.0994437235421</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>316.2586546150901</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.32925809038652</v>
+        <v>68.38158003812808</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>296.0589625183731</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>102.9351225831551</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
         <v>292.7769070118668</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812805</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459456</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>124.2175601048142</v>
       </c>
       <c r="V44" t="n">
-        <v>242.2189017332849</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
         <v>289.0912395460418</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1257.98906130239</v>
+        <v>940.6617484403025</v>
       </c>
       <c r="C2" t="n">
-        <v>1257.98906130239</v>
+        <v>940.6617484403025</v>
       </c>
       <c r="D2" t="n">
-        <v>872.5479325190579</v>
+        <v>555.2206196569703</v>
       </c>
       <c r="E2" t="n">
-        <v>872.5479325190579</v>
+        <v>152.6370947735148</v>
       </c>
       <c r="F2" t="n">
-        <v>455.6534940490357</v>
+        <v>139.7830603438966</v>
       </c>
       <c r="G2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="L2" t="n">
-        <v>284.6640550363811</v>
+        <v>533.8186176171511</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322371</v>
+        <v>1034.985400612601</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828093</v>
+        <v>1536.152183608051</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720422</v>
+        <v>1976.19178450038</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216634</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078516</v>
+        <v>1820.409826157684</v>
       </c>
       <c r="T2" t="n">
-        <v>1884.740825899504</v>
+        <v>1596.909223717101</v>
       </c>
       <c r="U2" t="n">
-        <v>1628.988096334103</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="V2" t="n">
-        <v>1628.988096334103</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="W2" t="n">
-        <v>1257.98906130239</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="X2" t="n">
-        <v>1257.98906130239</v>
+        <v>1341.156494151699</v>
       </c>
       <c r="Y2" t="n">
-        <v>1257.98906130239</v>
+        <v>1341.156494151699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.5673750163385</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C3" t="n">
-        <v>605.5673750163385</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D3" t="n">
-        <v>561.1135238586423</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E3" t="n">
-        <v>424.6670329695301</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F3" t="n">
-        <v>300.2352268526619</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G3" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H3" t="n">
-        <v>91.87799252512728</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J3" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K3" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="L3" t="n">
-        <v>150.7494967528528</v>
+        <v>524.0644117969355</v>
       </c>
       <c r="M3" t="n">
-        <v>676.5723861487088</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="N3" t="n">
-        <v>1202.395275544565</v>
+        <v>883.7630516643735</v>
       </c>
       <c r="O3" t="n">
-        <v>1718.915558135546</v>
+        <v>1384.929834659824</v>
       </c>
       <c r="P3" t="n">
-        <v>2124.536926851943</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750008</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848785</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527427</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898494</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.985004031781</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817925</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572998</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>820.0367717111683</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="C4" t="n">
-        <v>820.0367717111683</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="D4" t="n">
-        <v>812.2025157668461</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="E4" t="n">
-        <v>656.6437036260486</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="F4" t="n">
-        <v>499.3177688390215</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H4" t="n">
-        <v>175.585163899961</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="U4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="V4" t="n">
-        <v>820.0367717111683</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="W4" t="n">
-        <v>820.0367717111683</v>
+        <v>534.7139570039292</v>
       </c>
       <c r="X4" t="n">
-        <v>820.0367717111683</v>
+        <v>300.6336347869122</v>
       </c>
       <c r="Y4" t="n">
-        <v>820.0367717111683</v>
+        <v>77.52157360355559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>872.5479325190579</v>
+        <v>477.9597882535243</v>
       </c>
       <c r="C5" t="n">
-        <v>872.5479325190579</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="D5" t="n">
-        <v>872.5479325190579</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="E5" t="n">
-        <v>872.5479325190579</v>
+        <v>200.8118287073683</v>
       </c>
       <c r="F5" t="n">
-        <v>455.6534940490357</v>
+        <v>187.9577942777502</v>
       </c>
       <c r="G5" t="n">
-        <v>42.49073853703887</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="H5" t="n">
-        <v>42.49073853703887</v>
+        <v>178.8354428061574</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>187.140511445867</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>632.8515471679029</v>
+        <v>1037.450746553441</v>
       </c>
       <c r="M5" t="n">
-        <v>1158.674436563759</v>
+        <v>1538.617529548891</v>
       </c>
       <c r="N5" t="n">
-        <v>1684.497325959615</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="O5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="P5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S5" t="n">
-        <v>1958.023371792994</v>
+        <v>1858.402739872162</v>
       </c>
       <c r="T5" t="n">
-        <v>1734.522769352411</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="U5" t="n">
-        <v>1478.770039787009</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="V5" t="n">
-        <v>1136.663230490528</v>
+        <v>1634.902137431579</v>
       </c>
       <c r="W5" t="n">
-        <v>1136.663230490528</v>
+        <v>1263.903102399866</v>
       </c>
       <c r="X5" t="n">
-        <v>1136.663230490528</v>
+        <v>874.4504973329232</v>
       </c>
       <c r="Y5" t="n">
-        <v>1136.663230490528</v>
+        <v>477.9597882535243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>784.8815919408312</v>
+        <v>839.8643090386531</v>
       </c>
       <c r="C6" t="n">
-        <v>634.2273615009234</v>
+        <v>689.2100785987453</v>
       </c>
       <c r="D6" t="n">
-        <v>504.1383941224037</v>
+        <v>559.1211112202257</v>
       </c>
       <c r="E6" t="n">
-        <v>367.6919032332914</v>
+        <v>422.6746203311134</v>
       </c>
       <c r="F6" t="n">
-        <v>243.2600971164233</v>
+        <v>298.2428142142452</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245264</v>
+        <v>178.1829962861097</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512728</v>
+        <v>89.88557988671064</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J6" t="n">
-        <v>155.6057207567663</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>475.3448668189927</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>475.3448668189927</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>475.3448668189927</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="N6" t="n">
-        <v>1001.167756214849</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="O6" t="n">
-        <v>1517.68803880583</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="P6" t="n">
-        <v>1923.309407522227</v>
+        <v>1790.551203376221</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="R6" t="n">
-        <v>2100.619883750008</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="S6" t="n">
-        <v>1965.689206649877</v>
+        <v>2024.916294931112</v>
       </c>
       <c r="T6" t="n">
-        <v>1788.705394848785</v>
+        <v>2023.0023288711</v>
       </c>
       <c r="U6" t="n">
-        <v>1578.642251527427</v>
+        <v>1812.939185549742</v>
       </c>
       <c r="V6" t="n">
-        <v>1356.102249898494</v>
+        <v>1590.399183920809</v>
       </c>
       <c r="W6" t="n">
-        <v>1125.985004031781</v>
+        <v>1360.281938054095</v>
       </c>
       <c r="X6" t="n">
-        <v>936.6779263817925</v>
+        <v>1170.974860404107</v>
       </c>
       <c r="Y6" t="n">
-        <v>936.6779263817925</v>
+        <v>991.6606434796145</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.49073853703887</v>
+        <v>509.016185923932</v>
       </c>
       <c r="C7" t="n">
-        <v>42.49073853703887</v>
+        <v>509.016185923932</v>
       </c>
       <c r="D7" t="n">
-        <v>42.49073853703887</v>
+        <v>353.3830728264468</v>
       </c>
       <c r="E7" t="n">
-        <v>42.49073853703887</v>
+        <v>197.8242606856493</v>
       </c>
       <c r="F7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="G7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703887</v>
+        <v>40.49832589862223</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.3333670085641</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823639</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590446</v>
+        <v>472.7525852206279</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>846.9789841957262</v>
+        <v>743.0965081409489</v>
       </c>
       <c r="T7" t="n">
-        <v>611.2599323639603</v>
+        <v>743.0965081409489</v>
       </c>
       <c r="U7" t="n">
-        <v>325.8211406058612</v>
+        <v>743.0965081409489</v>
       </c>
       <c r="V7" t="n">
-        <v>325.8211406058612</v>
+        <v>743.0965081409489</v>
       </c>
       <c r="W7" t="n">
-        <v>42.49073853703887</v>
+        <v>743.0965081409489</v>
       </c>
       <c r="X7" t="n">
-        <v>42.49073853703887</v>
+        <v>509.016185923932</v>
       </c>
       <c r="Y7" t="n">
-        <v>42.49073853703887</v>
+        <v>509.016185923932</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1281.955511018961</v>
+        <v>2118.406961705009</v>
       </c>
       <c r="C8" t="n">
-        <v>1281.955511018961</v>
+        <v>1725.23146020794</v>
       </c>
       <c r="D8" t="n">
-        <v>1281.955511018961</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="E8" t="n">
-        <v>879.371986135505</v>
+        <v>1339.790331424607</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,10 +4808,10 @@
         <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>318.7636682303387</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1231.283934773481</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="V8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.902861797301</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="X8" t="n">
-        <v>1682.450256730358</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Y8" t="n">
-        <v>1682.450256730358</v>
+        <v>2118.406961705009</v>
       </c>
     </row>
     <row r="9">
@@ -4884,16 +4884,16 @@
         <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D11" t="n">
-        <v>731.435776546391</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501239</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>334.6579324707835</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>334.6579324707835</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
-        <v>105.5155633244626</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5078,13 +5078,13 @@
         <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2221.78706024859</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="X11" t="n">
-        <v>1927.275136468836</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y11" t="n">
-        <v>1625.725108676625</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O12" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669550995</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082778</v>
+        <v>417.8199303082772</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979809</v>
+        <v>357.1274984979805</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443714</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445328</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5197,52 +5197,52 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K13" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L13" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791389</v>
       </c>
       <c r="M13" t="n">
-        <v>836.8050913469768</v>
+        <v>836.8050913469763</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P13" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q13" t="n">
-        <v>1678.203301484817</v>
+        <v>1678.203301484816</v>
       </c>
       <c r="R13" t="n">
-        <v>1649.242993404582</v>
+        <v>1649.242993404581</v>
       </c>
       <c r="S13" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T13" t="n">
-        <v>1400.589220329742</v>
+        <v>1400.589220329741</v>
       </c>
       <c r="U13" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V13" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966843</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852093</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553815</v>
+        <v>711.5230842553808</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592126</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1343.834685824516</v>
+        <v>1871.211875180718</v>
       </c>
       <c r="C14" t="n">
-        <v>1343.834685824516</v>
+        <v>1572.977054970837</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.334238328372</v>
+        <v>1282.476607474693</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H14" t="n">
         <v>105.5155633244624</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2768.675183574507</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V14" t="n">
-        <v>2521.509055565214</v>
+        <v>3048.886244921416</v>
       </c>
       <c r="W14" t="n">
-        <v>2245.45070182069</v>
+        <v>2772.827891176892</v>
       </c>
       <c r="X14" t="n">
-        <v>1950.938778040935</v>
+        <v>2478.315967397137</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.388750248724</v>
+        <v>2176.765939604927</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082777</v>
+        <v>417.8199303082779</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979809</v>
+        <v>357.127498497981</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.124114144533</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
-        <v>100.2728717798493</v>
+        <v>100.2728717798492</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,22 +5437,22 @@
         <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.283149675766</v>
+        <v>300.2831496757663</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791391</v>
+        <v>557.4621512791393</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469765</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N16" t="n">
         <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.367590874319</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T16" t="n">
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852096</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553811</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592128</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803432</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,16 +5549,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5689,10 +5689,10 @@
         <v>939.5504151240295</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106229</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U19" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292424</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L20" t="n">
         <v>1059.071548358934</v>
@@ -5783,7 +5783,7 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573994</v>
@@ -5838,16 +5838,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O22" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P22" t="n">
-        <v>965.7235964838006</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6020,19 +6020,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="24">
@@ -6075,16 +6075,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222408</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184691</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,55 +6218,55 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>700.0178648958351</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M26" t="n">
-        <v>1981.256287116104</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.11893248314</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6312,10 +6312,10 @@
         <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>1095.935962441339</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N27" t="n">
-        <v>1751.713933651898</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
@@ -6385,13 +6385,13 @@
         <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214272</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>247.9841471388005</v>
       </c>
       <c r="K29" t="n">
-        <v>755.8323718938493</v>
+        <v>700.0178648958356</v>
       </c>
       <c r="L29" t="n">
-        <v>1249.152663612378</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2509.067570753567</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>3042.158533375469</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6549,7 +6549,7 @@
         <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>989.7850731278173</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192012</v>
+        <v>311.5288809192015</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628627</v>
+        <v>1592.975474628628</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.367013084639</v>
+        <v>1719.814764781096</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200824</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144934</v>
+        <v>890.2201666674332</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423751</v>
+        <v>590.5275805474757</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282823</v>
+        <v>294.5666773855437</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267684</v>
+        <v>87.6854793020992</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J32" t="n">
-        <v>310.9628692786727</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>669.9452253061345</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1163.265517024663</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1817.756924709629</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2454.058715987477</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2894.098316879806</v>
+        <v>2601.975468713937</v>
       </c>
       <c r="P32" t="n">
-        <v>3242.285809011327</v>
+        <v>3065.032496333757</v>
       </c>
       <c r="Q32" t="n">
-        <v>3427.131369152276</v>
+        <v>3249.878056474706</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231444</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448551</v>
+        <v>3171.900284432041</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281054</v>
+        <v>3033.349407216705</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382476</v>
+        <v>2808.444450270288</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588641</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079628</v>
+        <v>2282.396514871762</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398133</v>
+        <v>2003.107658142428</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J33" t="n">
-        <v>181.6576096027729</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>501.3967556649993</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>984.9628415633126</v>
+        <v>982.9704289248959</v>
       </c>
       <c r="M33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="N33" t="n">
-        <v>1230.371419496412</v>
+        <v>1228.379006857996</v>
       </c>
       <c r="O33" t="n">
-        <v>1746.891702087393</v>
+        <v>1744.899289448977</v>
       </c>
       <c r="P33" t="n">
-        <v>2152.513070803791</v>
+        <v>2150.520658165374</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590217</v>
+        <v>341.687256555478</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229148</v>
+        <v>288.6839909715321</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233334</v>
+        <v>250.2527302241117</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804397</v>
+        <v>211.8957704333791</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964169</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459273</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806378</v>
+        <v>82.44278775748613</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="J34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462889</v>
       </c>
       <c r="K34" t="n">
-        <v>150.3776684929874</v>
+        <v>263.2547913428693</v>
       </c>
       <c r="L34" t="n">
-        <v>422.9958160071727</v>
+        <v>542.2519667049678</v>
       </c>
       <c r="M34" t="n">
-        <v>717.7779019858224</v>
+        <v>843.4130805315303</v>
       </c>
       <c r="N34" t="n">
-        <v>900.9675360170315</v>
+        <v>1040.452522330968</v>
       </c>
       <c r="O34" t="n">
-        <v>1172.162810699125</v>
+        <v>1203.157289372676</v>
       </c>
       <c r="P34" t="n">
-        <v>1400.529484116089</v>
+        <v>1323.033455149255</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392299</v>
+        <v>1326.455651519306</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501948</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034562</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.625083552861</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448267</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279036</v>
+        <v>798.6106513157158</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756985</v>
+        <v>632.4821015969583</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937872</v>
+        <v>515.6036317300062</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524192</v>
+        <v>409.6934228967144</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6971,16 +6971,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,16 +7014,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>865.4243596646552</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7099,16 +7099,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7123,22 +7123,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,16 +7157,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924217</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,25 +7199,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.931979188559</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369567</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.44722152188</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634911</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588725</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.3386307407266</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462911</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,49 +7333,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>149.5338114222411</v>
+        <v>149.5338114222403</v>
       </c>
       <c r="L40" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960401</v>
       </c>
       <c r="M40" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567326</v>
       </c>
       <c r="N40" t="n">
-        <v>683.1426636655142</v>
+        <v>812.1990332879418</v>
       </c>
       <c r="O40" t="n">
-        <v>845.8474307072222</v>
+        <v>974.9038003296498</v>
       </c>
       <c r="P40" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.779966106228</v>
       </c>
       <c r="Q40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476279</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341237</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918799</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161894</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194221</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330083</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856983999</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974517</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1812.812015342702</v>
+        <v>1466.234960326425</v>
       </c>
       <c r="C41" t="n">
-        <v>1517.077765835766</v>
+        <v>1170.500710819489</v>
       </c>
       <c r="D41" t="n">
-        <v>1229.077889042567</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="E41" t="n">
-        <v>923.9356161492444</v>
+        <v>923.9356161492442</v>
       </c>
       <c r="F41" t="n">
-        <v>604.4824296693555</v>
+        <v>604.4824296693553</v>
       </c>
       <c r="G41" t="n">
-        <v>288.7609261474917</v>
+        <v>288.7609261474915</v>
       </c>
       <c r="H41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3084.411680063972</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3084.411680063972</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="U41" t="n">
-        <v>2926.100202488704</v>
+        <v>2878.572604561692</v>
       </c>
       <c r="V41" t="n">
-        <v>2681.434645182355</v>
+        <v>2633.907047255344</v>
       </c>
       <c r="W41" t="n">
-        <v>2407.876862140776</v>
+        <v>2360.349264213764</v>
       </c>
       <c r="X41" t="n">
-        <v>2115.865509063966</v>
+        <v>2068.337911136954</v>
       </c>
       <c r="Y41" t="n">
-        <v>2115.865509063966</v>
+        <v>1769.288454047688</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7567,13 +7567,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822076</v>
+        <v>68.2319501674404</v>
       </c>
       <c r="K43" t="n">
-        <v>305.184768367679</v>
+        <v>245.5691623529118</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022411</v>
       </c>
       <c r="M43" t="n">
         <v>786.9927227160347</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1812.812015342702</v>
+        <v>1812.812015342701</v>
       </c>
       <c r="C44" t="n">
-        <v>1517.077765835766</v>
+        <v>1517.077765835765</v>
       </c>
       <c r="D44" t="n">
-        <v>1229.077889042567</v>
+        <v>1229.077889042566</v>
       </c>
       <c r="E44" t="n">
-        <v>923.9356161492442</v>
+        <v>923.9356161492443</v>
       </c>
       <c r="F44" t="n">
         <v>604.4824296693553</v>
@@ -7673,25 +7673,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3036.88408213696</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2910.82473168651</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.513254111242</v>
+        <v>2980.48410227162</v>
       </c>
       <c r="V44" t="n">
-        <v>2507.847696804894</v>
+        <v>2980.48410227162</v>
       </c>
       <c r="W44" t="n">
-        <v>2507.847696804894</v>
+        <v>2706.926319230041</v>
       </c>
       <c r="X44" t="n">
-        <v>2215.836343728084</v>
+        <v>2414.914966153231</v>
       </c>
       <c r="Y44" t="n">
-        <v>1916.786886638818</v>
+        <v>2115.865509063965</v>
       </c>
     </row>
     <row r="45">
@@ -7804,13 +7804,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822076</v>
+        <v>68.23195016743929</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676791</v>
+        <v>245.5691623529107</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170083</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M46" t="n">
         <v>786.9927227160337</v>
@@ -7982,19 +7982,19 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>397.8676813459889</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>680.8592833107132</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N2" t="n">
-        <v>680.25272305077</v>
+        <v>655.347565070562</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>199.5181244436847</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8061,22 +8061,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>199.4126278829929</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>623.5213537622977</v>
+        <v>455.7190815113706</v>
       </c>
       <c r="N3" t="n">
-        <v>616.5063445671525</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>598.9166326216668</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,19 +8216,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>603.4613371264876</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>680.8592833107132</v>
+        <v>655.9541253305051</v>
       </c>
       <c r="N5" t="n">
-        <v>680.25272305077</v>
+        <v>640.3293654612393</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>92.38712204931191</v>
+        <v>598.6161957820898</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671525</v>
+        <v>421.1962343712189</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>294.2482736909809</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,13 +8456,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>281.3299123769229</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>312.0396197609155</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8532,19 +8532,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>663.2434089132782</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>263.5850982253579</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>569.9919810238538</v>
       </c>
       <c r="O12" t="n">
-        <v>342.4574509263909</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8936,7 +8936,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N14" t="n">
-        <v>682.2612020826954</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
         <v>594.0482827698827</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>550.900652917313</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>340.2745745069883</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9486,10 +9486,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9723,10 +9723,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>313.8678003657248</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,10 +10671,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -11136,7 +11136,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>412.5657697396227</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>230.4905691364586</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23318,10 +23318,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>253.9636180770623</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>295.2524720077822</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>23.42700515637898</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>188.195027847684</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23780,10 +23780,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.384404281969182e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>-3.573021314332064e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>41.020434301725</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>302.0908501643891</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>47.05232194774155</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>124.7987569459456</v>
@@ -25694,7 +25694,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25862,7 +25862,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>197.0878362008959</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>32.51080269470133</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111635</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>551714.533398346</v>
+        <v>551413.7595914659</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>551714.533398346</v>
+        <v>551413.7595914659</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>521332.6610418713</v>
+        <v>521332.6610418714</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521332.6610418714</v>
+        <v>521332.6610418713</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523549.5294957136</v>
+        <v>523549.5294957137</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>721328.712373427</v>
+      </c>
+      <c r="C2" t="n">
         <v>721328.7123734271</v>
       </c>
-      <c r="C2" t="n">
-        <v>721328.7123734272</v>
-      </c>
       <c r="D2" t="n">
-        <v>721328.712373427</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
         <v>677904.4907329526</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329533</v>
+        <v>677904.4907329534</v>
       </c>
       <c r="G2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734275</v>
       </c>
       <c r="H2" t="n">
         <v>721328.7123734275</v>
       </c>
       <c r="I2" t="n">
+        <v>721328.7123734276</v>
+      </c>
+      <c r="J2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="K2" t="n">
         <v>721328.7123734275</v>
       </c>
-      <c r="J2" t="n">
-        <v>721328.7123734272</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>721328.7123734284</v>
+      </c>
+      <c r="M2" t="n">
+        <v>721328.7123734277</v>
+      </c>
+      <c r="N2" t="n">
         <v>721328.7123734273</v>
       </c>
-      <c r="L2" t="n">
-        <v>721328.7123734273</v>
-      </c>
-      <c r="M2" t="n">
-        <v>721328.7123734272</v>
-      </c>
-      <c r="N2" t="n">
-        <v>721328.7123734276</v>
-      </c>
       <c r="O2" t="n">
-        <v>680860.3153380761</v>
+        <v>680860.3153380763</v>
       </c>
       <c r="P2" t="n">
-        <v>680860.3153380763</v>
+        <v>680860.3153380764</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.297134351</v>
+        <v>169649.0058765497</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602633</v>
+        <v>26460.41160941832</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301434</v>
+        <v>29094.95587301437</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.5897923932</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481258</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.97194555668</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>18983.55983015681</v>
+        <v>18983.55983015679</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181309.5476066572</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="C4" t="n">
-        <v>181309.5476066572</v>
+        <v>187720.9480760006</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26430,31 +26430,31 @@
         <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="I4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="K4" t="n">
-        <v>135498.1974718596</v>
+        <v>135498.1974718595</v>
       </c>
       <c r="L4" t="n">
-        <v>135175.3428171985</v>
+        <v>135041.9482081437</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
       </c>
       <c r="N4" t="n">
-        <v>134747.7050074764</v>
+        <v>134747.7050074765</v>
       </c>
       <c r="O4" t="n">
-        <v>111818.0002629858</v>
+        <v>111818.0002629859</v>
       </c>
       <c r="P4" t="n">
         <v>111818.0002629859</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295289</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.67530588337</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>296103.3063442694</v>
+        <v>299552.4307379238</v>
       </c>
       <c r="C6" t="n">
-        <v>474098.6034786205</v>
+        <v>469201.4366144737</v>
       </c>
       <c r="D6" t="n">
-        <v>467227.082392946</v>
+        <v>459490.7931695541</v>
       </c>
       <c r="E6" t="n">
-        <v>382195.8857223369</v>
+        <v>382087.3251682358</v>
       </c>
       <c r="F6" t="n">
-        <v>512648.8168600497</v>
+        <v>512540.2563059487</v>
       </c>
       <c r="G6" t="n">
-        <v>499316.2821774172</v>
+        <v>499316.2821774169</v>
       </c>
       <c r="H6" t="n">
-        <v>528411.2380504315</v>
+        <v>528411.2380504312</v>
       </c>
       <c r="I6" t="n">
         <v>528411.2380504315</v>
       </c>
       <c r="J6" t="n">
-        <v>300325.5947006815</v>
+        <v>306841.8798552551</v>
       </c>
       <c r="K6" t="n">
-        <v>522171.4696476482</v>
+        <v>522171.4696476485</v>
       </c>
       <c r="L6" t="n">
-        <v>483277.1227150601</v>
+        <v>479228.2855045887</v>
       </c>
       <c r="M6" t="n">
-        <v>485679.9611160627</v>
+        <v>484628.2661048748</v>
       </c>
       <c r="N6" t="n">
-        <v>528411.2380504315</v>
+        <v>528411.2380504312</v>
       </c>
       <c r="O6" t="n">
-        <v>494738.3474623827</v>
+        <v>494637.1764697946</v>
       </c>
       <c r="P6" t="n">
-        <v>513721.9072925397</v>
+        <v>513620.7362999515</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26811,13 +26811,13 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288069</v>
+        <v>831.877684307861</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351573</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902019</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.72944978769601</v>
+        <v>23.72944978769598</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630921</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559198</v>
+        <v>646.8007142757119</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.688382025732</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126792</v>
+        <v>36.36869484126797</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630921</v>
+        <v>85.18305253651715</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>310.7392408560552</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>186.3288605589559</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27458,10 +27458,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>84.77876505861529</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>173.3191472836688</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>146.7029232765042</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>146.3208685816314</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27597,13 +27597,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>135.0156532625276</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>114.8672665314043</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>56.40537843887627</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>173.3191472836688</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27777,13 +27777,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27822,22 +27822,22 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>104.7987338652397</v>
+        <v>3.927571083042693</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>318.8604160977513</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -27907,7 +27907,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27916,10 +27916,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>147.7566740501554</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>69.10327304716648</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28077,7 +28077,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28761,13 +28761,13 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>28.01250026485194</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28983,7 +28983,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -28998,13 +28998,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634528936</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>5.636002634528666</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>128.2979821082778</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>86.65052755599481</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29533,16 +29533,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
+        <v>30.27223765901226</v>
+      </c>
+      <c r="K29" t="n">
         <v>93.99127447431646</v>
       </c>
-      <c r="K29" t="n">
-        <v>86.65052755599578</v>
-      </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>93.99127447431646</v>
@@ -29551,13 +29551,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,31 +29746,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J32" t="n">
-        <v>98.75804948161519</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>24.86974620213914</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.98970481639273</v>
       </c>
       <c r="O34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>28.92237465268533</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265642</v>
       </c>
     </row>
     <row r="35">
@@ -30171,19 +30171,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.636002634528595</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30405,13 +30405,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>5.636002634529035</v>
+        <v>5.636002634528168</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>96.46683947023186</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023186</v>
+        <v>36.24905561693167</v>
       </c>
       <c r="K43" t="n">
         <v>96.46683947023186</v>
@@ -30648,7 +30648,7 @@
         <v>96.46683947023186</v>
       </c>
       <c r="M43" t="n">
-        <v>36.24905561693163</v>
+        <v>96.46683947023186</v>
       </c>
       <c r="N43" t="n">
         <v>96.46683947023186</v>
@@ -30876,7 +30876,7 @@
         <v>96.46683947023189</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023189</v>
+        <v>36.24905561693055</v>
       </c>
       <c r="K46" t="n">
         <v>96.46683947023189</v>
@@ -30885,7 +30885,7 @@
         <v>96.46683947023189</v>
       </c>
       <c r="M46" t="n">
-        <v>36.2490556169306</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N46" t="n">
         <v>96.46683947023189</v>
@@ -34702,19 +34702,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>244.6195116154972</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>49.21667720275952</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34781,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>109.3522810260747</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>531.1342317129859</v>
+        <v>363.3319594620586</v>
       </c>
       <c r="N3" t="n">
-        <v>531.1342317129859</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>450.2131673959959</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129859</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1342317129859</v>
+        <v>491.2108741234551</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>506.2290737327779</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129859</v>
+        <v>335.8241215170523</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.2601205350668</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,13 +35176,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>128.0817426464313</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>162.9211284231314</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35252,19 +35252,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>570.8562868639664</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>178.2129853711913</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>484.6198681696871</v>
       </c>
       <c r="O12" t="n">
-        <v>249.769892037502</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>458.2130940284241</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35823,7 +35823,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>247.8874524576764</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,13 +36057,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>156.7975262446462</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500442</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724871</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,10 +36516,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>88.29766032133864</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>296.1454641376044</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,10 +36534,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>131.7547461184303</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>176.3831193851008</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M26" t="n">
-        <v>638.1665882070863</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>221.4806783164129</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>176.3831193851013</v>
       </c>
       <c r="K29" t="n">
-        <v>449.2589679877754</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
         <v>627.1339852192276</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>244.8689312077042</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>661.1024320050163</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>642.729082098836</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>469.3541915479254</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>467.7343713331519</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>78.41684924923094</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>198.6914915133742</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759448</v>
+        <v>281.8153286485842</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>304.2031452793561</v>
       </c>
       <c r="N34" t="n">
-        <v>185.0400343749588</v>
+        <v>199.0297391913515</v>
       </c>
       <c r="O34" t="n">
-        <v>273.9346208910036</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>230.673407491883</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>32.37913866283781</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,10 +37391,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37467,19 +37467,19 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>190.6760370094878</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>126.7230387724868</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37701,13 +37701,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>88.29766032133901</v>
+        <v>88.29766032133814</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,7 +37716,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>322.9688344062893</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.3923519980728</v>
+        <v>6.174568144772601</v>
       </c>
       <c r="K43" t="n">
         <v>179.1284971570418</v>
@@ -37944,7 +37944,7 @@
         <v>262.2523342922518</v>
       </c>
       <c r="M43" t="n">
-        <v>224.4223670697236</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
         <v>281.5068738451906</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807283</v>
+        <v>6.174568144771482</v>
       </c>
       <c r="K46" t="n">
         <v>179.1284971570419</v>
@@ -38181,7 +38181,7 @@
         <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
-        <v>224.4223670697226</v>
+        <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
         <v>281.5068738451907</v>
